--- a/data/pca/factorExposure/factorExposure_2016-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01022323781867221</v>
+        <v>0.01375995942219966</v>
       </c>
       <c r="C2">
-        <v>-0.0564013228121777</v>
+        <v>0.04339587918644939</v>
       </c>
       <c r="D2">
-        <v>-0.03591246698624959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06428520131941612</v>
+      </c>
+      <c r="E2">
+        <v>0.05234674504263417</v>
+      </c>
+      <c r="F2">
+        <v>0.08136408168755356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0594792877134697</v>
+        <v>0.03106038707448802</v>
       </c>
       <c r="C3">
-        <v>-0.09278692521120864</v>
+        <v>0.08163976772475984</v>
       </c>
       <c r="D3">
-        <v>-0.08561263679619915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09134608368259597</v>
+      </c>
+      <c r="E3">
+        <v>0.06231963831200794</v>
+      </c>
+      <c r="F3">
+        <v>0.01149513514366388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06626040577575042</v>
+        <v>0.05767007429348596</v>
       </c>
       <c r="C4">
-        <v>-0.05721583232078311</v>
+        <v>0.06633159151281764</v>
       </c>
       <c r="D4">
-        <v>-0.02460241997075708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05897346985715309</v>
+      </c>
+      <c r="E4">
+        <v>0.05097553506924098</v>
+      </c>
+      <c r="F4">
+        <v>0.08890425724147613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04182424328378559</v>
+        <v>0.03548839933341184</v>
       </c>
       <c r="C6">
-        <v>-0.03597309086110348</v>
+        <v>0.03182778032658841</v>
       </c>
       <c r="D6">
-        <v>-0.02894248316705654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06632246922910232</v>
+      </c>
+      <c r="E6">
+        <v>0.05817622573315791</v>
+      </c>
+      <c r="F6">
+        <v>0.07087424617874674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02056096636883399</v>
+        <v>0.01921877748092091</v>
       </c>
       <c r="C7">
-        <v>-0.04390768904360901</v>
+        <v>0.03864284101506425</v>
       </c>
       <c r="D7">
-        <v>0.004020940820459695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03695116469511413</v>
+      </c>
+      <c r="E7">
+        <v>0.031933416111431</v>
+      </c>
+      <c r="F7">
+        <v>0.1080221438507798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001344797610147976</v>
+        <v>0.003213379026140492</v>
       </c>
       <c r="C8">
-        <v>-0.02726496592458667</v>
+        <v>0.02924750066512142</v>
       </c>
       <c r="D8">
-        <v>-0.03212175336915103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03534090332075026</v>
+      </c>
+      <c r="E8">
+        <v>0.04100834300745783</v>
+      </c>
+      <c r="F8">
+        <v>0.05008551418949989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03567139011917004</v>
+        <v>0.03646912866738189</v>
       </c>
       <c r="C9">
-        <v>-0.04186817075220547</v>
+        <v>0.05290506248829076</v>
       </c>
       <c r="D9">
-        <v>-0.01307535405133344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04411795771646507</v>
+      </c>
+      <c r="E9">
+        <v>0.0426405136982588</v>
+      </c>
+      <c r="F9">
+        <v>0.09223331858598401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06501995559155843</v>
+        <v>0.09844395633672551</v>
       </c>
       <c r="C10">
-        <v>0.1956923682352337</v>
+        <v>-0.1949665494614284</v>
       </c>
       <c r="D10">
-        <v>-0.002964781961708604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001044323041091359</v>
+      </c>
+      <c r="E10">
+        <v>0.04568860849331243</v>
+      </c>
+      <c r="F10">
+        <v>0.04094928500456052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04152720785030747</v>
+        <v>0.03649869013337501</v>
       </c>
       <c r="C11">
-        <v>-0.0539572161237853</v>
+        <v>0.05120367880241691</v>
       </c>
       <c r="D11">
-        <v>-0.007236873166778187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03368697091890056</v>
+      </c>
+      <c r="E11">
+        <v>0.005908303776683163</v>
+      </c>
+      <c r="F11">
+        <v>0.06635849832195698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.04149174808561567</v>
+        <v>0.03736358527594391</v>
       </c>
       <c r="C12">
-        <v>-0.04854791210970478</v>
+        <v>0.04720313203420676</v>
       </c>
       <c r="D12">
-        <v>-0.0007941976481596731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02535592584208902</v>
+      </c>
+      <c r="E12">
+        <v>0.01450327340353739</v>
+      </c>
+      <c r="F12">
+        <v>0.06976121752453893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0155887333452905</v>
+        <v>0.01216039602536866</v>
       </c>
       <c r="C13">
-        <v>-0.04756522886633672</v>
+        <v>0.04274308097939416</v>
       </c>
       <c r="D13">
-        <v>-0.01893656719070308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06142547327316867</v>
+      </c>
+      <c r="E13">
+        <v>0.06209593702064874</v>
+      </c>
+      <c r="F13">
+        <v>0.1143440888204565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007330676375188474</v>
+        <v>0.005008430225903114</v>
       </c>
       <c r="C14">
-        <v>-0.03533912860991684</v>
+        <v>0.0321715055321544</v>
       </c>
       <c r="D14">
-        <v>0.01546711892344582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02585382619257381</v>
+      </c>
+      <c r="E14">
+        <v>0.02620403733742298</v>
+      </c>
+      <c r="F14">
+        <v>0.09756627956140981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001390158529567711</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003562368532133638</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005040904999120271</v>
+      </c>
+      <c r="E15">
+        <v>0.0002679346062359253</v>
+      </c>
+      <c r="F15">
+        <v>0.003050917702811057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03611096451827804</v>
+        <v>0.03400155174072229</v>
       </c>
       <c r="C16">
-        <v>-0.04632636312929093</v>
+        <v>0.04525753163083882</v>
       </c>
       <c r="D16">
-        <v>-0.007878609490782642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02800331219624499</v>
+      </c>
+      <c r="E16">
+        <v>0.02006468612131043</v>
+      </c>
+      <c r="F16">
+        <v>0.07082258100151993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02456057886336606</v>
+        <v>0.01661335057777961</v>
       </c>
       <c r="C19">
-        <v>-0.0631494580017781</v>
+        <v>0.05106861975562639</v>
       </c>
       <c r="D19">
-        <v>-0.07333735211643952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09413981282741483</v>
+      </c>
+      <c r="E19">
+        <v>0.08134003582680345</v>
+      </c>
+      <c r="F19">
+        <v>0.09172646740045895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01639002651707076</v>
+        <v>0.01350745826671679</v>
       </c>
       <c r="C20">
-        <v>-0.04600103389648682</v>
+        <v>0.041242593328275</v>
       </c>
       <c r="D20">
-        <v>-0.01891519372572307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03954310041718194</v>
+      </c>
+      <c r="E20">
+        <v>0.05634717873197263</v>
+      </c>
+      <c r="F20">
+        <v>0.08950985760404225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01049654321457985</v>
+        <v>0.008913806813145039</v>
       </c>
       <c r="C21">
-        <v>-0.04941710080217207</v>
+        <v>0.04541257582664682</v>
       </c>
       <c r="D21">
-        <v>-0.03245285117525839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06711499717254533</v>
+      </c>
+      <c r="E21">
+        <v>0.06909893999047614</v>
+      </c>
+      <c r="F21">
+        <v>0.1360388644716835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001804051743697262</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02325114641593614</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0357582629003883</v>
+      </c>
+      <c r="E22">
+        <v>0.01990740327389306</v>
+      </c>
+      <c r="F22">
+        <v>0.02169419263336773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001872225176916828</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02337430775930179</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03544165982431662</v>
+      </c>
+      <c r="E23">
+        <v>0.02018629357503538</v>
+      </c>
+      <c r="F23">
+        <v>0.02157208916057054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03306838122194783</v>
+        <v>0.03371553435255317</v>
       </c>
       <c r="C24">
-        <v>-0.05042018797447938</v>
+        <v>0.05319496496876359</v>
       </c>
       <c r="D24">
-        <v>-0.004550466936139213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02655292028362206</v>
+      </c>
+      <c r="E24">
+        <v>0.01701833435066979</v>
+      </c>
+      <c r="F24">
+        <v>0.07911746560932532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04747430571142017</v>
+        <v>0.04410523589742922</v>
       </c>
       <c r="C25">
-        <v>-0.05922639371177476</v>
+        <v>0.05619229342678689</v>
       </c>
       <c r="D25">
-        <v>0.006602341234724874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0244575887838777</v>
+      </c>
+      <c r="E25">
+        <v>0.01157204735603482</v>
+      </c>
+      <c r="F25">
+        <v>0.08059049943449087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01510261911567385</v>
+        <v>0.01390068882752996</v>
       </c>
       <c r="C26">
-        <v>-0.01682400892055428</v>
+        <v>0.01695086724032944</v>
       </c>
       <c r="D26">
-        <v>-0.001021405496370177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02564161095958612</v>
+      </c>
+      <c r="E26">
+        <v>0.02816663270888401</v>
+      </c>
+      <c r="F26">
+        <v>0.07459301049262482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0757549732267733</v>
+        <v>0.1327991580424133</v>
       </c>
       <c r="C28">
-        <v>0.2302934091108572</v>
+        <v>-0.2456734791256356</v>
       </c>
       <c r="D28">
-        <v>0.001478729563197762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01687074554260826</v>
+      </c>
+      <c r="E28">
+        <v>0.04663985383716008</v>
+      </c>
+      <c r="F28">
+        <v>0.05734143114962114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.009193784723281175</v>
+        <v>0.006059631148760864</v>
       </c>
       <c r="C29">
-        <v>-0.02803524540644139</v>
+        <v>0.02768514998837567</v>
       </c>
       <c r="D29">
-        <v>0.01752400354182437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02019869129132153</v>
+      </c>
+      <c r="E29">
+        <v>0.02765577998993013</v>
+      </c>
+      <c r="F29">
+        <v>0.08930387426368872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05412895689591898</v>
+        <v>0.04239029464856141</v>
       </c>
       <c r="C30">
-        <v>-0.05782048919110766</v>
+        <v>0.06489515945792229</v>
       </c>
       <c r="D30">
-        <v>-0.05581436691369684</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.107141091902405</v>
+      </c>
+      <c r="E30">
+        <v>0.04221635357587433</v>
+      </c>
+      <c r="F30">
+        <v>0.1043444554323808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0541766588143477</v>
+        <v>0.05487821365524829</v>
       </c>
       <c r="C31">
-        <v>-0.03148920008645201</v>
+        <v>0.05447011896389167</v>
       </c>
       <c r="D31">
-        <v>0.01959334799167392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0106011092227735</v>
+      </c>
+      <c r="E31">
+        <v>0.04772073780982362</v>
+      </c>
+      <c r="F31">
+        <v>0.08294491973594846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009356090571179934</v>
+        <v>0.004910582165959828</v>
       </c>
       <c r="C32">
-        <v>-0.04676160758179953</v>
+        <v>0.03367824035019967</v>
       </c>
       <c r="D32">
-        <v>-0.02713794036209772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04973685194540767</v>
+      </c>
+      <c r="E32">
+        <v>0.02364179358719683</v>
+      </c>
+      <c r="F32">
+        <v>0.07439647347041838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02777755939951618</v>
+        <v>0.02467082640580499</v>
       </c>
       <c r="C33">
-        <v>-0.0612364402582926</v>
+        <v>0.05523270357439187</v>
       </c>
       <c r="D33">
-        <v>-0.03525961034887452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07838570985041354</v>
+      </c>
+      <c r="E33">
+        <v>0.05098138897678604</v>
+      </c>
+      <c r="F33">
+        <v>0.1297036976114158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04615866203132191</v>
+        <v>0.04147743242172568</v>
       </c>
       <c r="C34">
-        <v>-0.06360844546618033</v>
+        <v>0.06348122936040602</v>
       </c>
       <c r="D34">
-        <v>-0.0003674807953821869</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03443572781176662</v>
+      </c>
+      <c r="E34">
+        <v>-0.007292490936589804</v>
+      </c>
+      <c r="F34">
+        <v>0.07690327768711676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01146241613468998</v>
+        <v>0.01298373866944454</v>
       </c>
       <c r="C36">
-        <v>-0.01725933523921195</v>
+        <v>0.01269430891649426</v>
       </c>
       <c r="D36">
-        <v>-0.0002902932441974848</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02685874304459215</v>
+      </c>
+      <c r="E36">
+        <v>0.03409868173163831</v>
+      </c>
+      <c r="F36">
+        <v>0.08220546229854969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02974939395290954</v>
+        <v>0.02435820187408167</v>
       </c>
       <c r="C38">
-        <v>-0.02906507943271848</v>
+        <v>0.0247489087544303</v>
       </c>
       <c r="D38">
-        <v>0.001598754708840567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02561185629722635</v>
+      </c>
+      <c r="E38">
+        <v>0.03343362668646085</v>
+      </c>
+      <c r="F38">
+        <v>0.06944450335368466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04354502758611512</v>
+        <v>0.03961305082118762</v>
       </c>
       <c r="C39">
-        <v>-0.07267412230211463</v>
+        <v>0.06823940563703405</v>
       </c>
       <c r="D39">
-        <v>-0.02164658012070196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05293505811396533</v>
+      </c>
+      <c r="E39">
+        <v>0.01936741729794162</v>
+      </c>
+      <c r="F39">
+        <v>0.09124126425977279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01512402989321409</v>
+        <v>0.0156373651918582</v>
       </c>
       <c r="C40">
-        <v>-0.03927565810257969</v>
+        <v>0.04074396919751697</v>
       </c>
       <c r="D40">
-        <v>-0.03272965620474494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03803879864338054</v>
+      </c>
+      <c r="E40">
+        <v>0.06964059064678356</v>
+      </c>
+      <c r="F40">
+        <v>0.08858926160257992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01353030716016932</v>
+        <v>0.01753483034986394</v>
       </c>
       <c r="C41">
-        <v>-0.0121308775186687</v>
+        <v>0.006674726384100204</v>
       </c>
       <c r="D41">
-        <v>0.00326075465635828</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01518591521370605</v>
+      </c>
+      <c r="E41">
+        <v>0.03756054623627683</v>
+      </c>
+      <c r="F41">
+        <v>0.07158003712657968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0006016342165790214</v>
+        <v>0.0005484892020587455</v>
       </c>
       <c r="C42">
-        <v>-0.006628709709135574</v>
+        <v>0.003644025574598743</v>
       </c>
       <c r="D42">
-        <v>-0.008395752121672727</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001594122110979363</v>
+      </c>
+      <c r="E42">
+        <v>0.006922310892393604</v>
+      </c>
+      <c r="F42">
+        <v>-0.005868659365058059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03333289566535302</v>
+        <v>0.02865832273433121</v>
       </c>
       <c r="C43">
-        <v>-0.02554144609102231</v>
+        <v>0.02192781835153184</v>
       </c>
       <c r="D43">
-        <v>-0.01336110715457599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03952253206078707</v>
+      </c>
+      <c r="E43">
+        <v>0.04384843546359535</v>
+      </c>
+      <c r="F43">
+        <v>0.08605052316550482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02018790265692139</v>
+        <v>0.01425429799811506</v>
       </c>
       <c r="C44">
-        <v>-0.05812964630366898</v>
+        <v>0.05262771461773454</v>
       </c>
       <c r="D44">
-        <v>-0.0147118920983266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03901591025355479</v>
+      </c>
+      <c r="E44">
+        <v>0.05675452143071191</v>
+      </c>
+      <c r="F44">
+        <v>0.08974774897164914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.003413465264301706</v>
+        <v>0.007553049514550836</v>
       </c>
       <c r="C46">
-        <v>-0.02347095379705046</v>
+        <v>0.02585359705257654</v>
       </c>
       <c r="D46">
-        <v>0.02294308944496662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01139604769216331</v>
+      </c>
+      <c r="E46">
+        <v>0.03266695618404233</v>
+      </c>
+      <c r="F46">
+        <v>0.1036785505739872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08451832787396883</v>
+        <v>0.08726310715196234</v>
       </c>
       <c r="C47">
-        <v>-0.06636205512162414</v>
+        <v>0.07950281025898617</v>
       </c>
       <c r="D47">
-        <v>0.01549676037512914</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01709100344046389</v>
+      </c>
+      <c r="E47">
+        <v>0.05399478332543638</v>
+      </c>
+      <c r="F47">
+        <v>0.08120460819286103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01856683048388854</v>
+        <v>0.01571475249368032</v>
       </c>
       <c r="C48">
-        <v>-0.01384605029374946</v>
+        <v>0.01789039424172395</v>
       </c>
       <c r="D48">
-        <v>0.009006347884301514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01695482261663182</v>
+      </c>
+      <c r="E48">
+        <v>0.04515155782234948</v>
+      </c>
+      <c r="F48">
+        <v>0.09676923687355352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08602448634024551</v>
+        <v>0.07108707281583414</v>
       </c>
       <c r="C50">
-        <v>-0.06546948530262475</v>
+        <v>0.07117083846861823</v>
       </c>
       <c r="D50">
-        <v>0.02508478859839907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005786355176689404</v>
+      </c>
+      <c r="E50">
+        <v>0.05196766942696919</v>
+      </c>
+      <c r="F50">
+        <v>0.07448140588692127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01448341968541857</v>
+        <v>0.01076637117007695</v>
       </c>
       <c r="C51">
-        <v>-0.04819002515699489</v>
+        <v>0.03416056394563206</v>
       </c>
       <c r="D51">
-        <v>-0.01148584725726393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04784377837749369</v>
+      </c>
+      <c r="E51">
+        <v>0.02150686946854588</v>
+      </c>
+      <c r="F51">
+        <v>0.08275367632450946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0866060317455921</v>
+        <v>0.09424507303071307</v>
       </c>
       <c r="C53">
-        <v>-0.06879746161824916</v>
+        <v>0.08568152588912349</v>
       </c>
       <c r="D53">
-        <v>0.03278586678447451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04077225422463523</v>
+      </c>
+      <c r="E53">
+        <v>0.05026880807300153</v>
+      </c>
+      <c r="F53">
+        <v>0.0908931904037668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03237804787368057</v>
+        <v>0.02818375233146345</v>
       </c>
       <c r="C54">
-        <v>-0.02468895484226857</v>
+        <v>0.02690582765264951</v>
       </c>
       <c r="D54">
-        <v>-0.001291436614813386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03046106560867013</v>
+      </c>
+      <c r="E54">
+        <v>0.04035147611647231</v>
+      </c>
+      <c r="F54">
+        <v>0.09685897857179444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07810220653429463</v>
+        <v>0.08539755391447752</v>
       </c>
       <c r="C55">
-        <v>-0.05400489369321148</v>
+        <v>0.06934848364526421</v>
       </c>
       <c r="D55">
-        <v>0.03728958954537868</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04794982356077574</v>
+      </c>
+      <c r="E55">
+        <v>0.04177719587507865</v>
+      </c>
+      <c r="F55">
+        <v>0.06555524288943597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1537900533654624</v>
+        <v>0.1470390053064273</v>
       </c>
       <c r="C56">
-        <v>-0.08142554473459677</v>
+        <v>0.1033739241450219</v>
       </c>
       <c r="D56">
-        <v>0.04051091782449928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05115822262464891</v>
+      </c>
+      <c r="E56">
+        <v>0.04585801400275932</v>
+      </c>
+      <c r="F56">
+        <v>0.05089597861299022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.002024275768631211</v>
+        <v>0.0007615670216974389</v>
       </c>
       <c r="C57">
-        <v>-0.0011170062689715</v>
+        <v>0.000835908910278505</v>
       </c>
       <c r="D57">
-        <v>-0.01893880096716026</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01656698522679037</v>
+      </c>
+      <c r="E57">
+        <v>0.008255384053112665</v>
+      </c>
+      <c r="F57">
+        <v>0.01128159320351039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07239001817115512</v>
+        <v>0.02812070692543494</v>
       </c>
       <c r="C58">
-        <v>-0.02256064133749978</v>
+        <v>0.04210020933729459</v>
       </c>
       <c r="D58">
-        <v>-0.9026840365605497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.472614865653042</v>
+      </c>
+      <c r="E58">
+        <v>0.7033380932114176</v>
+      </c>
+      <c r="F58">
+        <v>-0.4489934079703303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1226523412192916</v>
+        <v>0.1437661389506717</v>
       </c>
       <c r="C59">
-        <v>0.2072219815088644</v>
+        <v>-0.1868351921390655</v>
       </c>
       <c r="D59">
-        <v>-0.01886149608901441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03221451539780383</v>
+      </c>
+      <c r="E59">
+        <v>0.02607193649257132</v>
+      </c>
+      <c r="F59">
+        <v>0.02300267417055482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3209045979094567</v>
+        <v>0.2838825189799392</v>
       </c>
       <c r="C60">
-        <v>-0.07474512164042095</v>
+        <v>0.09590611670480775</v>
       </c>
       <c r="D60">
-        <v>-0.02962264205300344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2080821225237564</v>
+      </c>
+      <c r="E60">
+        <v>-0.2690961503578015</v>
+      </c>
+      <c r="F60">
+        <v>-0.1155761570038735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0425290799699737</v>
+        <v>0.04109417037331393</v>
       </c>
       <c r="C61">
-        <v>-0.06401769697256871</v>
+        <v>0.06193915208374846</v>
       </c>
       <c r="D61">
-        <v>-0.01164329891318479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04527384059399507</v>
+      </c>
+      <c r="E61">
+        <v>0.02196235955615178</v>
+      </c>
+      <c r="F61">
+        <v>0.08269327598433776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01636529605729215</v>
+        <v>0.01527432462046784</v>
       </c>
       <c r="C63">
-        <v>-0.03608205011161118</v>
+        <v>0.03274737339117504</v>
       </c>
       <c r="D63">
-        <v>0.003502233330094359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02268001738036795</v>
+      </c>
+      <c r="E63">
+        <v>0.03731473808978037</v>
+      </c>
+      <c r="F63">
+        <v>0.078273973689356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05194549825690435</v>
+        <v>0.05574668717461046</v>
       </c>
       <c r="C64">
-        <v>-0.0368368703011634</v>
+        <v>0.05405961613388693</v>
       </c>
       <c r="D64">
-        <v>0.008916024416972569</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006049630522706639</v>
+      </c>
+      <c r="E64">
+        <v>0.01921845579700449</v>
+      </c>
+      <c r="F64">
+        <v>0.0861091307849768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09663689039925812</v>
+        <v>0.06982731917909465</v>
       </c>
       <c r="C65">
-        <v>-0.02328720533268997</v>
+        <v>0.03220157720817993</v>
       </c>
       <c r="D65">
-        <v>-0.03995092932747778</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08633306309516625</v>
+      </c>
+      <c r="E65">
+        <v>0.03251684614431573</v>
+      </c>
+      <c r="F65">
+        <v>0.01870231581589482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06658412698571471</v>
+        <v>0.05268834309767377</v>
       </c>
       <c r="C66">
-        <v>-0.1016509023795464</v>
+        <v>0.09032465612970612</v>
       </c>
       <c r="D66">
-        <v>-0.03405773622752273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07994528553004601</v>
+      </c>
+      <c r="E66">
+        <v>0.02267386636488299</v>
+      </c>
+      <c r="F66">
+        <v>0.09364059639965995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05138647147401993</v>
+        <v>0.04644676095623356</v>
       </c>
       <c r="C67">
-        <v>-0.03284495322877978</v>
+        <v>0.03038227107233907</v>
       </c>
       <c r="D67">
-        <v>0.006381173685517394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0118073211994433</v>
+      </c>
+      <c r="E67">
+        <v>0.01652291799565283</v>
+      </c>
+      <c r="F67">
+        <v>0.05462496677250363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1018486977543242</v>
+        <v>0.1487238482999245</v>
       </c>
       <c r="C68">
-        <v>0.2929650313972777</v>
+        <v>-0.2530931072773173</v>
       </c>
       <c r="D68">
-        <v>0.002428931634627665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01779366953055799</v>
+      </c>
+      <c r="E68">
+        <v>0.04145753398965197</v>
+      </c>
+      <c r="F68">
+        <v>0.0191598146402122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.09161235705357194</v>
+        <v>0.08740410959565575</v>
       </c>
       <c r="C69">
-        <v>-0.06325465187366977</v>
+        <v>0.08511995574245823</v>
       </c>
       <c r="D69">
-        <v>0.04123329122853006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01178855337351591</v>
+      </c>
+      <c r="E69">
+        <v>0.03117965896075945</v>
+      </c>
+      <c r="F69">
+        <v>0.09774318500868102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1012456671186308</v>
+        <v>0.1409576461248117</v>
       </c>
       <c r="C71">
-        <v>0.2523237456152964</v>
+        <v>-0.2340701539636417</v>
       </c>
       <c r="D71">
-        <v>-0.02728887583052609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01552485904148682</v>
+      </c>
+      <c r="E71">
+        <v>0.06217642298437228</v>
+      </c>
+      <c r="F71">
+        <v>0.05855465541472246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08909015902570142</v>
+        <v>0.09732478591905105</v>
       </c>
       <c r="C72">
-        <v>-0.04720318284811201</v>
+        <v>0.05547039932815516</v>
       </c>
       <c r="D72">
-        <v>0.008469744987974788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01988762052737279</v>
+      </c>
+      <c r="E72">
+        <v>0.008342896148769702</v>
+      </c>
+      <c r="F72">
+        <v>0.0806167806912214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4349232063383774</v>
+        <v>0.3472137902395437</v>
       </c>
       <c r="C73">
-        <v>-0.03252826311969739</v>
+        <v>0.07614916987630961</v>
       </c>
       <c r="D73">
-        <v>-0.1502544894774146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4442725052703467</v>
+      </c>
+      <c r="E73">
+        <v>-0.4721822331199265</v>
+      </c>
+      <c r="F73">
+        <v>-0.2947661570183469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1177085773903281</v>
+        <v>0.1120210050821853</v>
       </c>
       <c r="C74">
-        <v>-0.09771913290667057</v>
+        <v>0.0985295786420894</v>
       </c>
       <c r="D74">
-        <v>0.01520769207511178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03145284869711681</v>
+      </c>
+      <c r="E74">
+        <v>0.06043155516961808</v>
+      </c>
+      <c r="F74">
+        <v>0.0564431784552991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2524839705315562</v>
+        <v>0.2582978217532718</v>
       </c>
       <c r="C75">
-        <v>-0.1017397408682625</v>
+        <v>0.1321342111944737</v>
       </c>
       <c r="D75">
-        <v>0.05845030209862852</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1296841905175847</v>
+      </c>
+      <c r="E75">
+        <v>0.07374676703599589</v>
+      </c>
+      <c r="F75">
+        <v>0.01643498293140198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1182868999628877</v>
+        <v>0.1293499597525852</v>
       </c>
       <c r="C76">
-        <v>-0.08806858761774908</v>
+        <v>0.100601345209234</v>
       </c>
       <c r="D76">
-        <v>0.03193613266054149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05887614186328605</v>
+      </c>
+      <c r="E76">
+        <v>0.06545572417823768</v>
+      </c>
+      <c r="F76">
+        <v>0.07178591067448914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08041562216820083</v>
+        <v>0.06241556910043265</v>
       </c>
       <c r="C77">
-        <v>-0.05269983626353621</v>
+        <v>0.06986906886696494</v>
       </c>
       <c r="D77">
-        <v>-0.05061721528073789</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06378538004134643</v>
+      </c>
+      <c r="E77">
+        <v>0.06809822351989342</v>
+      </c>
+      <c r="F77">
+        <v>0.118810348012549</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0488455378086116</v>
+        <v>0.04363739462154533</v>
       </c>
       <c r="C78">
-        <v>-0.0448799073082952</v>
+        <v>0.05576741535632002</v>
       </c>
       <c r="D78">
-        <v>-0.02071576275388917</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07294330637843888</v>
+      </c>
+      <c r="E78">
+        <v>0.02409067105874957</v>
+      </c>
+      <c r="F78">
+        <v>0.1037175202855675</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02538179709958367</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03771729127689752</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06146596391336438</v>
+      </c>
+      <c r="E79">
+        <v>0.05026042263015486</v>
+      </c>
+      <c r="F79">
+        <v>0.04378107501032839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04563563140134811</v>
+        <v>0.03505797761371405</v>
       </c>
       <c r="C80">
-        <v>-0.04920370624545155</v>
+        <v>0.05490191378777198</v>
       </c>
       <c r="D80">
-        <v>-0.03009801825746825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04614783644904649</v>
+      </c>
+      <c r="E80">
+        <v>0.01035702005099182</v>
+      </c>
+      <c r="F80">
+        <v>0.03708542422342957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1435720630730899</v>
+        <v>0.141308399222715</v>
       </c>
       <c r="C81">
-        <v>-0.06583068407288239</v>
+        <v>0.09481918788087547</v>
       </c>
       <c r="D81">
-        <v>0.03666598291174007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09809083699931606</v>
+      </c>
+      <c r="E81">
+        <v>0.07942178429821525</v>
+      </c>
+      <c r="F81">
+        <v>0.0223502131099729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1579298181537565</v>
+        <v>0.2016763392918911</v>
       </c>
       <c r="C82">
-        <v>-0.05340460946446213</v>
+        <v>0.1335700880014526</v>
       </c>
       <c r="D82">
-        <v>0.132313438408147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2303893273246495</v>
+      </c>
+      <c r="E82">
+        <v>0.01147249177501813</v>
+      </c>
+      <c r="F82">
+        <v>0.08367201009467841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03306795148482794</v>
+        <v>0.02773327260365128</v>
       </c>
       <c r="C83">
-        <v>-0.01845905635690643</v>
+        <v>0.04042755910887843</v>
       </c>
       <c r="D83">
-        <v>-0.02126326576555823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03492091069495044</v>
+      </c>
+      <c r="E83">
+        <v>0.009040528619760688</v>
+      </c>
+      <c r="F83">
+        <v>0.05023772145166095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2257601157725217</v>
+        <v>0.2052491854157708</v>
       </c>
       <c r="C85">
-        <v>-0.09717778100031364</v>
+        <v>0.118812845907105</v>
       </c>
       <c r="D85">
-        <v>0.09697141640712485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1019637162006589</v>
+      </c>
+      <c r="E85">
+        <v>0.003875719573869147</v>
+      </c>
+      <c r="F85">
+        <v>-0.01584465721323549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.009950491902385594</v>
+        <v>0.01153883158534102</v>
       </c>
       <c r="C86">
-        <v>-0.03502964397648772</v>
+        <v>0.03139158789704462</v>
       </c>
       <c r="D86">
-        <v>-0.03774882844437958</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07109522694750868</v>
+      </c>
+      <c r="E86">
+        <v>0.04373077856007634</v>
+      </c>
+      <c r="F86">
+        <v>0.1377079867965034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02023287258738077</v>
+        <v>0.02143104517655257</v>
       </c>
       <c r="C87">
-        <v>-0.0182658079212812</v>
+        <v>0.0216478287559356</v>
       </c>
       <c r="D87">
-        <v>-0.09332963348215738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09204093192174496</v>
+      </c>
+      <c r="E87">
+        <v>0.08980167771133203</v>
+      </c>
+      <c r="F87">
+        <v>0.09457374068382596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1073742530721241</v>
+        <v>0.09183968322279469</v>
       </c>
       <c r="C88">
-        <v>-0.06620434245340455</v>
+        <v>0.06213572884779271</v>
       </c>
       <c r="D88">
-        <v>0.01825539808539897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01045489437979765</v>
+      </c>
+      <c r="E88">
+        <v>0.03451723629685101</v>
+      </c>
+      <c r="F88">
+        <v>0.07363359109068966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1620127902063884</v>
+        <v>0.2202442622027648</v>
       </c>
       <c r="C89">
-        <v>0.3848056934375992</v>
+        <v>-0.3819312372080459</v>
       </c>
       <c r="D89">
-        <v>0.0261212729619709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01184218364475279</v>
+      </c>
+      <c r="E89">
+        <v>0.03777154339517537</v>
+      </c>
+      <c r="F89">
+        <v>0.09549233605306449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1561495612680434</v>
+        <v>0.1988174217285943</v>
       </c>
       <c r="C90">
-        <v>0.3548319804329274</v>
+        <v>-0.3167030634574926</v>
       </c>
       <c r="D90">
-        <v>0.01145214686297089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01133571690643561</v>
+      </c>
+      <c r="E90">
+        <v>0.06714118768512399</v>
+      </c>
+      <c r="F90">
+        <v>0.04738727349403477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1926698578816811</v>
+        <v>0.1870990892480574</v>
       </c>
       <c r="C91">
-        <v>-0.1085377329191441</v>
+        <v>0.1383469765885892</v>
       </c>
       <c r="D91">
-        <v>0.05977512302065758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1069107064893566</v>
+      </c>
+      <c r="E91">
+        <v>0.06370194971425712</v>
+      </c>
+      <c r="F91">
+        <v>0.03701225608839025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.148568806682269</v>
+        <v>0.1803647437786055</v>
       </c>
       <c r="C92">
-        <v>0.2989298273032772</v>
+        <v>-0.2835929657108607</v>
       </c>
       <c r="D92">
-        <v>0.007878285510890808</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001252432250542739</v>
+      </c>
+      <c r="E92">
+        <v>0.06849523621065397</v>
+      </c>
+      <c r="F92">
+        <v>0.08046609388454549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1800842395782012</v>
+        <v>0.2228761791589871</v>
       </c>
       <c r="C93">
-        <v>0.3477652410786105</v>
+        <v>-0.320725460229506</v>
       </c>
       <c r="D93">
-        <v>0.004799214004420864</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001462213547336745</v>
+      </c>
+      <c r="E93">
+        <v>0.05151327004788168</v>
+      </c>
+      <c r="F93">
+        <v>0.04459769749162384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3332274968317485</v>
+        <v>0.3439548360042947</v>
       </c>
       <c r="C94">
-        <v>-0.1326615944035368</v>
+        <v>0.183391958257336</v>
       </c>
       <c r="D94">
-        <v>0.2464136524230692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4763354859731443</v>
+      </c>
+      <c r="E94">
+        <v>0.1412473635104728</v>
+      </c>
+      <c r="F94">
+        <v>-0.4457762373474342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1023055114199755</v>
+        <v>0.08565334459719658</v>
       </c>
       <c r="C95">
-        <v>-0.08016318447296823</v>
+        <v>0.06657302239211316</v>
       </c>
       <c r="D95">
-        <v>-0.06435348635969314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1605914709085968</v>
+      </c>
+      <c r="E95">
+        <v>-0.1233379899118824</v>
+      </c>
+      <c r="F95">
+        <v>0.1699858820504707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1980323906476674</v>
+        <v>0.1875573943569921</v>
       </c>
       <c r="C98">
-        <v>-0.01435725215087524</v>
+        <v>0.04178060496369398</v>
       </c>
       <c r="D98">
-        <v>-0.06674667144305244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1792494047349835</v>
+      </c>
+      <c r="E98">
+        <v>-0.1538491749721912</v>
+      </c>
+      <c r="F98">
+        <v>-0.0451892061499212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.009099126414412873</v>
+        <v>0.006106901033528543</v>
       </c>
       <c r="C101">
-        <v>-0.02803089171474072</v>
+        <v>0.02743199155281964</v>
       </c>
       <c r="D101">
-        <v>0.0177471174092197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01970663084327964</v>
+      </c>
+      <c r="E101">
+        <v>0.02836374810471706</v>
+      </c>
+      <c r="F101">
+        <v>0.08911295901269936</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1262706295886538</v>
+        <v>0.1252048956991103</v>
       </c>
       <c r="C102">
-        <v>-0.06893715124484277</v>
+        <v>0.09891735163404294</v>
       </c>
       <c r="D102">
-        <v>0.03496121941155345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05099236989488522</v>
+      </c>
+      <c r="E102">
+        <v>-0.008990574371447768</v>
+      </c>
+      <c r="F102">
+        <v>0.03970157931826368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
